--- a/static/download/2021/RP3_APT_CDO_2021_Jan_Dec.xlsx
+++ b/static/download/2021/RP3_APT_CDO_2021_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="339">
   <si>
     <t>Data source</t>
   </si>
@@ -386,21 +386,15 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Tukums Jurmala (EVJA)</t>
-  </si>
-  <si>
-    <t>EVJA</t>
+    <t>Liepaja (EVLA)</t>
+  </si>
+  <si>
+    <t>EVLA</t>
   </si>
   <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Liepaja (EVLA)</t>
-  </si>
-  <si>
-    <t>EVLA</t>
-  </si>
-  <si>
     <t>Riga (EVRA)</t>
   </si>
   <si>
@@ -860,33 +854,15 @@
     <t>LIRF</t>
   </si>
   <si>
-    <t>Karlovy Vary (LKKV)</t>
-  </si>
-  <si>
-    <t>LKKV</t>
+    <t>Prague (LKPR)</t>
+  </si>
+  <si>
+    <t>LKPR</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Ostrava (LKMT)</t>
-  </si>
-  <si>
-    <t>LKMT</t>
-  </si>
-  <si>
-    <t>Prague (LKPR)</t>
-  </si>
-  <si>
-    <t>LKPR</t>
-  </si>
-  <si>
-    <t>Brno-Tuřany (LKTB)</t>
-  </si>
-  <si>
-    <t>LKTB</t>
-  </si>
-  <si>
     <t>Malta (LMML)</t>
   </si>
   <si>
@@ -1047,17 +1023,22 @@
   </si>
   <si>
     <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>LKKV, LKMT, LKTB, EVJA</t>
+  </si>
+  <si>
+    <t>Airports removed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d mmm yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="dd-mmm-yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd-mmm-yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1206,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1268,35 +1249,47 @@
     <xf borderId="4" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -1306,9 +1299,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,14 +1327,14 @@
       <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.29"/>
-    <col customWidth="1" min="2" max="2" width="15.71"/>
-    <col customWidth="1" min="3" max="3" width="17.43"/>
-    <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="22.43"/>
-    <col customWidth="1" min="6" max="6" width="21.0"/>
+    <col customWidth="1" min="1" max="1" width="30.88"/>
+    <col customWidth="1" min="2" max="2" width="13.75"/>
+    <col customWidth="1" min="3" max="3" width="15.25"/>
+    <col customWidth="1" min="4" max="4" width="13.75"/>
+    <col customWidth="1" min="5" max="5" width="19.63"/>
+    <col customWidth="1" min="6" max="6" width="18.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -1372,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>44578.0</v>
+        <v>44665.0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -2300,7 +2290,7 @@
         <v>992.0</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" ref="F47:F53" si="2">E47/D47</f>
+        <f t="shared" ref="F47:F150" si="2">E47/D47</f>
         <v>0.483902439</v>
       </c>
     </row>
@@ -2440,9 +2430,16 @@
       <c r="C54" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="22"/>
+      <c r="D54" s="20">
+        <v>90.0</v>
+      </c>
+      <c r="E54" s="20">
+        <v>18.0</v>
+      </c>
+      <c r="F54" s="21">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="18" t="s">
@@ -2455,14 +2452,14 @@
         <v>126</v>
       </c>
       <c r="D55" s="20">
-        <v>90.0</v>
+        <v>18395.0</v>
       </c>
       <c r="E55" s="20">
-        <v>18.0</v>
+        <v>9680.0</v>
       </c>
       <c r="F55" s="21">
-        <f t="shared" ref="F55:F154" si="3">E55/D55</f>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.5262299538</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2476,14 +2473,14 @@
         <v>126</v>
       </c>
       <c r="D56" s="20">
-        <v>18395.0</v>
+        <v>8.0</v>
       </c>
       <c r="E56" s="20">
-        <v>9680.0</v>
+        <v>7.0</v>
       </c>
       <c r="F56" s="21">
-        <f t="shared" si="3"/>
-        <v>0.5262299538</v>
+        <f t="shared" si="2"/>
+        <v>0.875</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -2494,38 +2491,38 @@
         <v>132</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D57" s="20">
-        <v>8.0</v>
+        <v>5757.0</v>
       </c>
       <c r="E57" s="20">
-        <v>7.0</v>
+        <v>2994.0</v>
       </c>
       <c r="F57" s="21">
-        <f t="shared" si="3"/>
-        <v>0.875</v>
+        <f t="shared" si="2"/>
+        <v>0.5200625326</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="D58" s="20">
-        <v>5757.0</v>
+        <v>25574.0</v>
       </c>
       <c r="E58" s="20">
-        <v>2994.0</v>
+        <v>10133.0</v>
       </c>
       <c r="F58" s="21">
-        <f t="shared" si="3"/>
-        <v>0.5200625326</v>
+        <f t="shared" si="2"/>
+        <v>0.3962227262</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -2536,17 +2533,17 @@
         <v>137</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="20">
-        <v>25574.0</v>
+        <v>81332.0</v>
       </c>
       <c r="E59" s="20">
-        <v>10133.0</v>
+        <v>28964.0</v>
       </c>
       <c r="F59" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3962227262</v>
+        <f t="shared" si="2"/>
+        <v>0.3561205921</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -2557,17 +2554,17 @@
         <v>139</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="20">
-        <v>81332.0</v>
+        <v>29903.0</v>
       </c>
       <c r="E60" s="20">
-        <v>28964.0</v>
+        <v>9245.0</v>
       </c>
       <c r="F60" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3561205921</v>
+        <f t="shared" si="2"/>
+        <v>0.3091663044</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -2578,17 +2575,17 @@
         <v>141</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" s="20">
-        <v>29903.0</v>
+        <v>108393.0</v>
       </c>
       <c r="E61" s="20">
-        <v>9245.0</v>
+        <v>30417.0</v>
       </c>
       <c r="F61" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3091663044</v>
+        <f t="shared" si="2"/>
+        <v>0.2806177521</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -2599,17 +2596,17 @@
         <v>143</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D62" s="20">
-        <v>108393.0</v>
+        <v>43374.0</v>
       </c>
       <c r="E62" s="20">
-        <v>30417.0</v>
+        <v>20284.0</v>
       </c>
       <c r="F62" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2806177521</v>
+        <f t="shared" si="2"/>
+        <v>0.4676534329</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -2620,17 +2617,17 @@
         <v>145</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63" s="20">
-        <v>43374.0</v>
+        <v>70131.0</v>
       </c>
       <c r="E63" s="20">
-        <v>20284.0</v>
+        <v>26595.0</v>
       </c>
       <c r="F63" s="21">
-        <f t="shared" si="3"/>
-        <v>0.4676534329</v>
+        <f t="shared" si="2"/>
+        <v>0.3792188904</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -2641,59 +2638,59 @@
         <v>147</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D64" s="20">
-        <v>70131.0</v>
+        <v>455.0</v>
       </c>
       <c r="E64" s="20">
-        <v>26595.0</v>
+        <v>143.0</v>
       </c>
       <c r="F64" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3792188904</v>
+        <f t="shared" si="2"/>
+        <v>0.3142857143</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>149</v>
       </c>
+      <c r="B65" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="C65" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="20">
-        <v>455.0</v>
+        <v>882.0</v>
       </c>
       <c r="E65" s="20">
-        <v>143.0</v>
+        <v>111.0</v>
       </c>
       <c r="F65" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3142857143</v>
+        <f t="shared" si="2"/>
+        <v>0.1258503401</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D66" s="20">
-        <v>882.0</v>
+        <v>18823.0</v>
       </c>
       <c r="E66" s="20">
-        <v>111.0</v>
+        <v>5014.0</v>
       </c>
       <c r="F66" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1258503401</v>
+        <f t="shared" si="2"/>
+        <v>0.2663762418</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -2704,17 +2701,17 @@
         <v>154</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D67" s="20">
-        <v>18823.0</v>
+        <v>1241.0</v>
       </c>
       <c r="E67" s="20">
-        <v>5014.0</v>
+        <v>163.0</v>
       </c>
       <c r="F67" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2663762418</v>
+        <f t="shared" si="2"/>
+        <v>0.131345689</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -2725,17 +2722,17 @@
         <v>156</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="20">
-        <v>1241.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E68" s="20">
-        <v>163.0</v>
+        <v>380.0</v>
       </c>
       <c r="F68" s="21">
-        <f t="shared" si="3"/>
-        <v>0.131345689</v>
+        <f t="shared" si="2"/>
+        <v>0.2210587551</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -2746,17 +2743,17 @@
         <v>158</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="20">
-        <v>1719.0</v>
+        <v>2025.0</v>
       </c>
       <c r="E69" s="20">
-        <v>380.0</v>
+        <v>241.0</v>
       </c>
       <c r="F69" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2210587551</v>
+        <f t="shared" si="2"/>
+        <v>0.1190123457</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -2767,17 +2764,17 @@
         <v>160</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" s="20">
-        <v>2025.0</v>
+        <v>2133.0</v>
       </c>
       <c r="E70" s="20">
-        <v>241.0</v>
+        <v>663.0</v>
       </c>
       <c r="F70" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1190123457</v>
+        <f t="shared" si="2"/>
+        <v>0.3108298172</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -2788,17 +2785,17 @@
         <v>162</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D71" s="20">
-        <v>2133.0</v>
+        <v>23417.0</v>
       </c>
       <c r="E71" s="20">
-        <v>663.0</v>
+        <v>6351.0</v>
       </c>
       <c r="F71" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3108298172</v>
+        <f t="shared" si="2"/>
+        <v>0.2712132212</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -2809,17 +2806,17 @@
         <v>164</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" s="20">
-        <v>23417.0</v>
+        <v>3156.0</v>
       </c>
       <c r="E72" s="20">
-        <v>6351.0</v>
+        <v>512.0</v>
       </c>
       <c r="F72" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2712132212</v>
+        <f t="shared" si="2"/>
+        <v>0.1622306717</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -2830,17 +2827,17 @@
         <v>166</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D73" s="20">
-        <v>3156.0</v>
+        <v>2308.0</v>
       </c>
       <c r="E73" s="20">
-        <v>512.0</v>
+        <v>1468.0</v>
       </c>
       <c r="F73" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1622306717</v>
+        <f t="shared" si="2"/>
+        <v>0.6360485269</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -2851,17 +2848,17 @@
         <v>168</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" s="20">
-        <v>2308.0</v>
+        <v>4713.0</v>
       </c>
       <c r="E74" s="20">
-        <v>1468.0</v>
+        <v>982.0</v>
       </c>
       <c r="F74" s="21">
-        <f t="shared" si="3"/>
-        <v>0.6360485269</v>
+        <f t="shared" si="2"/>
+        <v>0.2083598557</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -2872,17 +2869,17 @@
         <v>170</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" s="20">
-        <v>4713.0</v>
+        <v>1398.0</v>
       </c>
       <c r="E75" s="20">
-        <v>982.0</v>
+        <v>217.0</v>
       </c>
       <c r="F75" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2083598557</v>
+        <f t="shared" si="2"/>
+        <v>0.1552217454</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -2893,17 +2890,17 @@
         <v>172</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" s="20">
-        <v>1398.0</v>
+        <v>1161.0</v>
       </c>
       <c r="E76" s="20">
-        <v>217.0</v>
+        <v>137.0</v>
       </c>
       <c r="F76" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1552217454</v>
+        <f t="shared" si="2"/>
+        <v>0.1180017227</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -2914,17 +2911,17 @@
         <v>174</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D77" s="20">
-        <v>1161.0</v>
+        <v>862.0</v>
       </c>
       <c r="E77" s="20">
-        <v>137.0</v>
+        <v>68.0</v>
       </c>
       <c r="F77" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1180017227</v>
+        <f t="shared" si="2"/>
+        <v>0.0788863109</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -2935,17 +2932,17 @@
         <v>176</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D78" s="20">
-        <v>862.0</v>
+        <v>7367.0</v>
       </c>
       <c r="E78" s="20">
-        <v>68.0</v>
+        <v>2444.0</v>
       </c>
       <c r="F78" s="21">
-        <f t="shared" si="3"/>
-        <v>0.0788863109</v>
+        <f t="shared" si="2"/>
+        <v>0.3317496946</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2956,17 +2953,17 @@
         <v>178</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D79" s="20">
-        <v>7367.0</v>
+        <v>3027.0</v>
       </c>
       <c r="E79" s="20">
-        <v>2444.0</v>
+        <v>1032.0</v>
       </c>
       <c r="F79" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3317496946</v>
+        <f t="shared" si="2"/>
+        <v>0.3409316155</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2977,17 +2974,17 @@
         <v>180</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" s="20">
-        <v>3027.0</v>
+        <v>6072.0</v>
       </c>
       <c r="E80" s="20">
-        <v>1032.0</v>
+        <v>1944.0</v>
       </c>
       <c r="F80" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3409316155</v>
+        <f t="shared" si="2"/>
+        <v>0.3201581028</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -2998,17 +2995,17 @@
         <v>182</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D81" s="20">
-        <v>6072.0</v>
+        <v>8070.0</v>
       </c>
       <c r="E81" s="20">
-        <v>1944.0</v>
+        <v>2579.0</v>
       </c>
       <c r="F81" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3201581028</v>
+        <f t="shared" si="2"/>
+        <v>0.3195786865</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -3019,17 +3016,17 @@
         <v>184</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" s="20">
-        <v>8070.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E82" s="20">
-        <v>2579.0</v>
+        <v>256.0</v>
       </c>
       <c r="F82" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3195786865</v>
+        <f t="shared" si="2"/>
+        <v>0.1383783784</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -3040,17 +3037,17 @@
         <v>186</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D83" s="20">
-        <v>1850.0</v>
+        <v>3022.0</v>
       </c>
       <c r="E83" s="20">
-        <v>256.0</v>
+        <v>472.0</v>
       </c>
       <c r="F83" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1383783784</v>
+        <f t="shared" si="2"/>
+        <v>0.156187955</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -3061,17 +3058,17 @@
         <v>188</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D84" s="20">
-        <v>3022.0</v>
+        <v>27222.0</v>
       </c>
       <c r="E84" s="20">
-        <v>472.0</v>
+        <v>4603.0</v>
       </c>
       <c r="F84" s="21">
-        <f t="shared" si="3"/>
-        <v>0.156187955</v>
+        <f t="shared" si="2"/>
+        <v>0.1690911763</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -3082,17 +3079,17 @@
         <v>190</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D85" s="20">
-        <v>27222.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E85" s="20">
-        <v>4603.0</v>
+        <v>220.0</v>
       </c>
       <c r="F85" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1690911763</v>
+        <f t="shared" si="2"/>
+        <v>0.1269474899</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -3103,17 +3100,17 @@
         <v>192</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D86" s="20">
-        <v>1733.0</v>
+        <v>2141.0</v>
       </c>
       <c r="E86" s="20">
-        <v>220.0</v>
+        <v>422.0</v>
       </c>
       <c r="F86" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1269474899</v>
+        <f t="shared" si="2"/>
+        <v>0.1971041569</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -3124,17 +3121,17 @@
         <v>194</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" s="20">
-        <v>2141.0</v>
+        <v>1128.0</v>
       </c>
       <c r="E87" s="20">
-        <v>422.0</v>
+        <v>109.0</v>
       </c>
       <c r="F87" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1971041569</v>
+        <f t="shared" si="2"/>
+        <v>0.09663120567</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -3145,17 +3142,17 @@
         <v>196</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D88" s="20">
-        <v>1128.0</v>
+        <v>4661.0</v>
       </c>
       <c r="E88" s="20">
-        <v>109.0</v>
+        <v>305.0</v>
       </c>
       <c r="F88" s="21">
-        <f t="shared" si="3"/>
-        <v>0.09663120567</v>
+        <f t="shared" si="2"/>
+        <v>0.06543660159</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
@@ -3166,17 +3163,17 @@
         <v>198</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D89" s="20">
-        <v>4661.0</v>
+        <v>7118.0</v>
       </c>
       <c r="E89" s="20">
-        <v>305.0</v>
+        <v>659.0</v>
       </c>
       <c r="F89" s="21">
-        <f t="shared" si="3"/>
-        <v>0.06543660159</v>
+        <f t="shared" si="2"/>
+        <v>0.09258218601</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
@@ -3187,17 +3184,17 @@
         <v>200</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D90" s="20">
-        <v>7118.0</v>
+        <v>877.0</v>
       </c>
       <c r="E90" s="20">
-        <v>659.0</v>
+        <v>103.0</v>
       </c>
       <c r="F90" s="21">
-        <f t="shared" si="3"/>
-        <v>0.09258218601</v>
+        <f t="shared" si="2"/>
+        <v>0.1174458381</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
@@ -3208,17 +3205,17 @@
         <v>202</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D91" s="20">
-        <v>877.0</v>
+        <v>1255.0</v>
       </c>
       <c r="E91" s="20">
-        <v>103.0</v>
+        <v>300.0</v>
       </c>
       <c r="F91" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1174458381</v>
+        <f t="shared" si="2"/>
+        <v>0.2390438247</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
@@ -3229,17 +3226,17 @@
         <v>204</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D92" s="20">
-        <v>1255.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E92" s="20">
-        <v>300.0</v>
+        <v>359.0</v>
       </c>
       <c r="F92" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2390438247</v>
+        <f t="shared" si="2"/>
+        <v>0.1887486856</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
@@ -3250,17 +3247,17 @@
         <v>206</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" s="20">
-        <v>1902.0</v>
+        <v>29524.0</v>
       </c>
       <c r="E93" s="20">
-        <v>359.0</v>
+        <v>6657.0</v>
       </c>
       <c r="F93" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1887486856</v>
+        <f t="shared" si="2"/>
+        <v>0.2254775776</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
@@ -3271,17 +3268,17 @@
         <v>208</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D94" s="20">
-        <v>29524.0</v>
+        <v>46838.0</v>
       </c>
       <c r="E94" s="20">
-        <v>6657.0</v>
+        <v>6202.0</v>
       </c>
       <c r="F94" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2254775776</v>
+        <f t="shared" si="2"/>
+        <v>0.132413852</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
@@ -3292,17 +3289,17 @@
         <v>210</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D95" s="20">
-        <v>46838.0</v>
+        <v>3945.0</v>
       </c>
       <c r="E95" s="20">
-        <v>6202.0</v>
+        <v>1546.0</v>
       </c>
       <c r="F95" s="21">
-        <f t="shared" si="3"/>
-        <v>0.132413852</v>
+        <f t="shared" si="2"/>
+        <v>0.3918884664</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
@@ -3313,17 +3310,17 @@
         <v>212</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D96" s="20">
-        <v>3945.0</v>
+        <v>9877.0</v>
       </c>
       <c r="E96" s="20">
-        <v>1546.0</v>
+        <v>2929.0</v>
       </c>
       <c r="F96" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3918884664</v>
+        <f t="shared" si="2"/>
+        <v>0.2965475347</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
@@ -3334,17 +3331,17 @@
         <v>214</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D97" s="20">
-        <v>9877.0</v>
+        <v>2306.0</v>
       </c>
       <c r="E97" s="20">
-        <v>2929.0</v>
+        <v>573.0</v>
       </c>
       <c r="F97" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2965475347</v>
+        <f t="shared" si="2"/>
+        <v>0.2484822203</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
@@ -3355,17 +3352,17 @@
         <v>216</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D98" s="20">
-        <v>2306.0</v>
+        <v>3439.0</v>
       </c>
       <c r="E98" s="20">
-        <v>573.0</v>
+        <v>408.0</v>
       </c>
       <c r="F98" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2484822203</v>
+        <f t="shared" si="2"/>
+        <v>0.1186391393</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
@@ -3376,17 +3373,17 @@
         <v>218</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D99" s="20">
-        <v>3439.0</v>
+        <v>7873.0</v>
       </c>
       <c r="E99" s="20">
-        <v>408.0</v>
+        <v>545.0</v>
       </c>
       <c r="F99" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1186391393</v>
+        <f t="shared" si="2"/>
+        <v>0.06922392989</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
@@ -3397,17 +3394,17 @@
         <v>220</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D100" s="20">
-        <v>7873.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E100" s="20">
-        <v>545.0</v>
+        <v>510.0</v>
       </c>
       <c r="F100" s="21">
-        <f t="shared" si="3"/>
-        <v>0.06922392989</v>
+        <f t="shared" si="2"/>
+        <v>0.2788408967</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
@@ -3418,17 +3415,17 @@
         <v>222</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D101" s="20">
-        <v>1829.0</v>
+        <v>1329.0</v>
       </c>
       <c r="E101" s="20">
-        <v>510.0</v>
+        <v>377.0</v>
       </c>
       <c r="F101" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2788408967</v>
+        <f t="shared" si="2"/>
+        <v>0.2836719338</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
@@ -3439,17 +3436,17 @@
         <v>224</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D102" s="20">
-        <v>1329.0</v>
+        <v>1278.0</v>
       </c>
       <c r="E102" s="20">
-        <v>377.0</v>
+        <v>591.0</v>
       </c>
       <c r="F102" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2836719338</v>
+        <f t="shared" si="2"/>
+        <v>0.4624413146</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
@@ -3460,17 +3457,17 @@
         <v>226</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D103" s="20">
-        <v>1278.0</v>
+        <v>25569.0</v>
       </c>
       <c r="E103" s="20">
-        <v>591.0</v>
+        <v>211.0</v>
       </c>
       <c r="F103" s="21">
-        <f t="shared" si="3"/>
-        <v>0.4624413146</v>
+        <f t="shared" si="2"/>
+        <v>0.008252180375</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
@@ -3481,17 +3478,17 @@
         <v>228</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D104" s="20">
-        <v>25569.0</v>
+        <v>127364.0</v>
       </c>
       <c r="E104" s="20">
-        <v>211.0</v>
+        <v>4365.0</v>
       </c>
       <c r="F104" s="21">
-        <f t="shared" si="3"/>
-        <v>0.008252180375</v>
+        <f t="shared" si="2"/>
+        <v>0.03427185076</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
@@ -3502,17 +3499,17 @@
         <v>230</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D105" s="20">
-        <v>127364.0</v>
+        <v>5004.0</v>
       </c>
       <c r="E105" s="20">
-        <v>4365.0</v>
+        <v>231.0</v>
       </c>
       <c r="F105" s="21">
-        <f t="shared" si="3"/>
-        <v>0.03427185076</v>
+        <f t="shared" si="2"/>
+        <v>0.04616306954</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
@@ -3523,17 +3520,17 @@
         <v>232</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D106" s="20">
-        <v>5004.0</v>
+        <v>60129.0</v>
       </c>
       <c r="E106" s="20">
-        <v>231.0</v>
+        <v>1620.0</v>
       </c>
       <c r="F106" s="21">
-        <f t="shared" si="3"/>
-        <v>0.04616306954</v>
+        <f t="shared" si="2"/>
+        <v>0.02694207454</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
@@ -3544,17 +3541,17 @@
         <v>234</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D107" s="20">
-        <v>60129.0</v>
+        <v>7344.0</v>
       </c>
       <c r="E107" s="20">
-        <v>1620.0</v>
+        <v>1742.0</v>
       </c>
       <c r="F107" s="21">
-        <f t="shared" si="3"/>
-        <v>0.02694207454</v>
+        <f t="shared" si="2"/>
+        <v>0.2372004357</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
@@ -3565,17 +3562,17 @@
         <v>236</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D108" s="20">
-        <v>7344.0</v>
+        <v>5681.0</v>
       </c>
       <c r="E108" s="20">
-        <v>1742.0</v>
+        <v>1899.0</v>
       </c>
       <c r="F108" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2372004357</v>
+        <f t="shared" si="2"/>
+        <v>0.3342721352</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
@@ -3586,17 +3583,17 @@
         <v>238</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D109" s="20">
-        <v>5681.0</v>
+        <v>886.0</v>
       </c>
       <c r="E109" s="20">
-        <v>1899.0</v>
+        <v>112.0</v>
       </c>
       <c r="F109" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3342721352</v>
+        <f t="shared" si="2"/>
+        <v>0.1264108352</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
@@ -3607,17 +3604,17 @@
         <v>240</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D110" s="20">
-        <v>886.0</v>
+        <v>1213.0</v>
       </c>
       <c r="E110" s="20">
-        <v>112.0</v>
+        <v>132.0</v>
       </c>
       <c r="F110" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1264108352</v>
+        <f t="shared" si="2"/>
+        <v>0.1088211047</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
@@ -3628,17 +3625,17 @@
         <v>242</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D111" s="20">
-        <v>1213.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E111" s="20">
-        <v>132.0</v>
+        <v>482.0</v>
       </c>
       <c r="F111" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1088211047</v>
+        <f t="shared" si="2"/>
+        <v>0.281871345</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
@@ -3649,17 +3646,17 @@
         <v>244</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D112" s="20">
-        <v>1710.0</v>
+        <v>2177.0</v>
       </c>
       <c r="E112" s="20">
-        <v>482.0</v>
+        <v>220.0</v>
       </c>
       <c r="F112" s="21">
-        <f t="shared" si="3"/>
-        <v>0.281871345</v>
+        <f t="shared" si="2"/>
+        <v>0.1010564998</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
@@ -3670,17 +3667,17 @@
         <v>246</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D113" s="20">
-        <v>2177.0</v>
+        <v>5084.0</v>
       </c>
       <c r="E113" s="20">
-        <v>220.0</v>
+        <v>2507.0</v>
       </c>
       <c r="F113" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1010564998</v>
+        <f t="shared" si="2"/>
+        <v>0.493115657</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
@@ -3691,17 +3688,17 @@
         <v>248</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D114" s="20">
-        <v>5084.0</v>
+        <v>868.0</v>
       </c>
       <c r="E114" s="20">
-        <v>2507.0</v>
+        <v>217.0</v>
       </c>
       <c r="F114" s="21">
-        <f t="shared" si="3"/>
-        <v>0.493115657</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
@@ -3712,17 +3709,17 @@
         <v>250</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D115" s="20">
-        <v>868.0</v>
+        <v>15137.0</v>
       </c>
       <c r="E115" s="20">
-        <v>217.0</v>
+        <v>3532.0</v>
       </c>
       <c r="F115" s="21">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0.2333355354</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
@@ -3733,17 +3730,17 @@
         <v>252</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D116" s="20">
-        <v>15137.0</v>
+        <v>1204.0</v>
       </c>
       <c r="E116" s="20">
-        <v>3532.0</v>
+        <v>263.0</v>
       </c>
       <c r="F116" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2333355354</v>
+        <f t="shared" si="2"/>
+        <v>0.2184385382</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
@@ -3754,17 +3751,17 @@
         <v>254</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D117" s="20">
-        <v>1204.0</v>
+        <v>21731.0</v>
       </c>
       <c r="E117" s="20">
-        <v>263.0</v>
+        <v>2895.0</v>
       </c>
       <c r="F117" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2184385382</v>
+        <f t="shared" si="2"/>
+        <v>0.1332198242</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
@@ -3775,17 +3772,17 @@
         <v>256</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D118" s="20">
-        <v>21731.0</v>
+        <v>1333.0</v>
       </c>
       <c r="E118" s="20">
-        <v>2895.0</v>
+        <v>261.0</v>
       </c>
       <c r="F118" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1332198242</v>
+        <f t="shared" si="2"/>
+        <v>0.1957989497</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
@@ -3796,17 +3793,17 @@
         <v>258</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D119" s="20">
-        <v>1333.0</v>
+        <v>4891.0</v>
       </c>
       <c r="E119" s="20">
-        <v>261.0</v>
+        <v>698.0</v>
       </c>
       <c r="F119" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1957989497</v>
+        <f t="shared" si="2"/>
+        <v>0.142711102</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
@@ -3817,17 +3814,17 @@
         <v>260</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D120" s="20">
-        <v>4891.0</v>
+        <v>5002.0</v>
       </c>
       <c r="E120" s="20">
-        <v>698.0</v>
+        <v>1098.0</v>
       </c>
       <c r="F120" s="21">
-        <f t="shared" si="3"/>
-        <v>0.142711102</v>
+        <f t="shared" si="2"/>
+        <v>0.2195121951</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
@@ -3838,17 +3835,17 @@
         <v>262</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D121" s="20">
-        <v>5002.0</v>
+        <v>1611.0</v>
       </c>
       <c r="E121" s="20">
-        <v>1098.0</v>
+        <v>324.0</v>
       </c>
       <c r="F121" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2195121951</v>
+        <f t="shared" si="2"/>
+        <v>0.2011173184</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
@@ -3859,80 +3856,80 @@
         <v>264</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="D122" s="20">
-        <v>1611.0</v>
+        <v>75910.0</v>
       </c>
       <c r="E122" s="20">
-        <v>324.0</v>
+        <v>28840.0</v>
       </c>
       <c r="F122" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2011173184</v>
+        <f t="shared" si="2"/>
+        <v>0.3799235937</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D123" s="20">
-        <v>75910.0</v>
+        <v>26987.0</v>
       </c>
       <c r="E123" s="20">
-        <v>28840.0</v>
+        <v>9173.0</v>
       </c>
       <c r="F123" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3799235937</v>
+        <f t="shared" si="2"/>
+        <v>0.3399043984</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D124" s="20">
-        <v>26987.0</v>
+        <v>58565.0</v>
       </c>
       <c r="E124" s="20">
-        <v>9173.0</v>
+        <v>13224.0</v>
       </c>
       <c r="F124" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3399043984</v>
+        <f t="shared" si="2"/>
+        <v>0.2258003927</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B125" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>273</v>
-      </c>
       <c r="D125" s="20">
-        <v>58565.0</v>
+        <v>25677.0</v>
       </c>
       <c r="E125" s="20">
-        <v>13224.0</v>
+        <v>10253.0</v>
       </c>
       <c r="F125" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2258003927</v>
+        <f t="shared" si="2"/>
+        <v>0.3993067726</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
@@ -3943,17 +3940,17 @@
         <v>275</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D126" s="20">
-        <v>25677.0</v>
+        <v>32911.0</v>
       </c>
       <c r="E126" s="20">
-        <v>10253.0</v>
+        <v>9085.0</v>
       </c>
       <c r="F126" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3993067726</v>
+        <f t="shared" si="2"/>
+        <v>0.2760475221</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
@@ -3964,17 +3961,17 @@
         <v>277</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D127" s="20">
-        <v>32911.0</v>
+        <v>19444.0</v>
       </c>
       <c r="E127" s="20">
-        <v>9085.0</v>
+        <v>6628.0</v>
       </c>
       <c r="F127" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2760475221</v>
+        <f t="shared" si="2"/>
+        <v>0.3408763629</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
@@ -3985,17 +3982,17 @@
         <v>279</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D128" s="20">
-        <v>19444.0</v>
+        <v>56734.0</v>
       </c>
       <c r="E128" s="20">
-        <v>6628.0</v>
+        <v>22520.0</v>
       </c>
       <c r="F128" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3408763629</v>
+        <f t="shared" si="2"/>
+        <v>0.3969401065</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
@@ -4006,143 +4003,143 @@
         <v>281</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D129" s="20">
-        <v>56734.0</v>
+        <v>27935.0</v>
       </c>
       <c r="E129" s="20">
-        <v>22520.0</v>
+        <v>7239.0</v>
       </c>
       <c r="F129" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3969401065</v>
+        <f t="shared" si="2"/>
+        <v>0.259137283</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D130" s="20">
-        <v>595.0</v>
+        <v>15845.0</v>
       </c>
       <c r="E130" s="20">
-        <v>92.0</v>
+        <v>8228.0</v>
       </c>
       <c r="F130" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1546218487</v>
+        <f t="shared" si="2"/>
+        <v>0.5192805301</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D131" s="20">
-        <v>3164.0</v>
+        <v>5057.0</v>
       </c>
       <c r="E131" s="20">
-        <v>1172.0</v>
+        <v>1223.0</v>
       </c>
       <c r="F131" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3704171934</v>
+        <f t="shared" si="2"/>
+        <v>0.2418429899</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B132" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C132" s="19" t="s">
-        <v>284</v>
-      </c>
       <c r="D132" s="20">
-        <v>27935.0</v>
+        <v>3518.0</v>
       </c>
       <c r="E132" s="20">
-        <v>7239.0</v>
+        <v>842.0</v>
       </c>
       <c r="F132" s="21">
-        <f t="shared" si="3"/>
-        <v>0.259137283</v>
+        <f t="shared" si="2"/>
+        <v>0.2393405344</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D133" s="20">
-        <v>2800.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E133" s="20">
-        <v>1039.0</v>
+        <v>524.0</v>
       </c>
       <c r="F133" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3710714286</v>
+        <f t="shared" si="2"/>
+        <v>0.2699639361</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D134" s="20">
-        <v>15845.0</v>
+        <v>4097.0</v>
       </c>
       <c r="E134" s="20">
-        <v>8228.0</v>
+        <v>1213.0</v>
       </c>
       <c r="F134" s="21">
-        <f t="shared" si="3"/>
-        <v>0.5192805301</v>
+        <f t="shared" si="2"/>
+        <v>0.2960702953</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D135" s="20">
-        <v>5057.0</v>
+        <v>7145.0</v>
       </c>
       <c r="E135" s="20">
-        <v>1223.0</v>
+        <v>1102.0</v>
       </c>
       <c r="F135" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2418429899</v>
+        <f t="shared" si="2"/>
+        <v>0.1542337299</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
@@ -4153,17 +4150,17 @@
         <v>298</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D136" s="20">
-        <v>3518.0</v>
+        <v>63653.0</v>
       </c>
       <c r="E136" s="20">
-        <v>842.0</v>
+        <v>20481.0</v>
       </c>
       <c r="F136" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2393405344</v>
+        <f t="shared" si="2"/>
+        <v>0.3217601684</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
@@ -4174,101 +4171,101 @@
         <v>300</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D137" s="20">
-        <v>1941.0</v>
+        <v>885.0</v>
       </c>
       <c r="E137" s="20">
-        <v>524.0</v>
+        <v>661.0</v>
       </c>
       <c r="F137" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2699639361</v>
+        <f t="shared" si="2"/>
+        <v>0.7468926554</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>296</v>
-      </c>
       <c r="D138" s="20">
-        <v>4097.0</v>
+        <v>2525.0</v>
       </c>
       <c r="E138" s="20">
-        <v>1213.0</v>
+        <v>846.0</v>
       </c>
       <c r="F138" s="21">
-        <f t="shared" si="3"/>
-        <v>0.2960702953</v>
+        <f t="shared" si="2"/>
+        <v>0.335049505</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D139" s="20">
-        <v>7145.0</v>
+        <v>1.0</v>
       </c>
       <c r="E139" s="20">
-        <v>1102.0</v>
+        <v>1.0</v>
       </c>
       <c r="F139" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1542337299</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D140" s="20">
-        <v>63653.0</v>
+        <v>17525.0</v>
       </c>
       <c r="E140" s="20">
-        <v>20481.0</v>
+        <v>10191.0</v>
       </c>
       <c r="F140" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3217601684</v>
+        <f t="shared" si="2"/>
+        <v>0.5815121255</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D141" s="20">
-        <v>885.0</v>
+        <v>158.0</v>
       </c>
       <c r="E141" s="20">
-        <v>661.0</v>
+        <v>156.0</v>
       </c>
       <c r="F141" s="21">
-        <f t="shared" si="3"/>
-        <v>0.7468926554</v>
+        <f t="shared" si="2"/>
+        <v>0.9873417722</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
@@ -4279,17 +4276,17 @@
         <v>311</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D142" s="20">
-        <v>2525.0</v>
+        <v>8195.0</v>
       </c>
       <c r="E142" s="20">
-        <v>846.0</v>
+        <v>3903.0</v>
       </c>
       <c r="F142" s="21">
-        <f t="shared" si="3"/>
-        <v>0.335049505</v>
+        <f t="shared" si="2"/>
+        <v>0.4762660159</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
@@ -4300,17 +4297,17 @@
         <v>313</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D143" s="20">
-        <v>1.0</v>
+        <v>6582.0</v>
       </c>
       <c r="E143" s="20">
-        <v>1.0</v>
+        <v>4415.0</v>
       </c>
       <c r="F143" s="21">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.6707687633</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
@@ -4321,17 +4318,17 @@
         <v>315</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D144" s="20">
-        <v>17525.0</v>
+        <v>26772.0</v>
       </c>
       <c r="E144" s="20">
-        <v>10191.0</v>
+        <v>11625.0</v>
       </c>
       <c r="F144" s="21">
-        <f t="shared" si="3"/>
-        <v>0.5815121255</v>
+        <f t="shared" si="2"/>
+        <v>0.4342223218</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
@@ -4342,17 +4339,17 @@
         <v>317</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D145" s="20">
-        <v>158.0</v>
+        <v>1053.0</v>
       </c>
       <c r="E145" s="20">
-        <v>156.0</v>
+        <v>688.0</v>
       </c>
       <c r="F145" s="21">
-        <f t="shared" si="3"/>
-        <v>0.9873417722</v>
+        <f t="shared" si="2"/>
+        <v>0.65337132</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
@@ -4363,17 +4360,17 @@
         <v>319</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D146" s="20">
-        <v>8195.0</v>
+        <v>57340.0</v>
       </c>
       <c r="E146" s="20">
-        <v>3903.0</v>
+        <v>29460.0</v>
       </c>
       <c r="F146" s="21">
-        <f t="shared" si="3"/>
-        <v>0.4762660159</v>
+        <f t="shared" si="2"/>
+        <v>0.5137774677</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
@@ -4384,172 +4381,88 @@
         <v>321</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D147" s="20">
-        <v>6582.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E147" s="20">
-        <v>4415.0</v>
+        <v>557.0</v>
       </c>
       <c r="F147" s="21">
-        <f t="shared" si="3"/>
-        <v>0.6707687633</v>
+        <f t="shared" si="2"/>
+        <v>0.3085872576</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B148" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>309</v>
-      </c>
       <c r="D148" s="20">
-        <v>26772.0</v>
+        <v>35002.0</v>
       </c>
       <c r="E148" s="20">
-        <v>11625.0</v>
+        <v>15915.0</v>
       </c>
       <c r="F148" s="21">
-        <f t="shared" si="3"/>
-        <v>0.4342223218</v>
+        <f t="shared" si="2"/>
+        <v>0.4546883035</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D149" s="20">
-        <v>1053.0</v>
+        <v>45181.0</v>
       </c>
       <c r="E149" s="20">
-        <v>688.0</v>
+        <v>8372.0</v>
       </c>
       <c r="F149" s="21">
-        <f t="shared" si="3"/>
-        <v>0.65337132</v>
+        <f t="shared" si="2"/>
+        <v>0.1852991302</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B150" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C150" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C150" s="19" t="s">
-        <v>309</v>
-      </c>
       <c r="D150" s="20">
-        <v>57340.0</v>
+        <v>62298.0</v>
       </c>
       <c r="E150" s="20">
-        <v>29460.0</v>
+        <v>12352.0</v>
       </c>
       <c r="F150" s="21">
-        <f t="shared" si="3"/>
-        <v>0.5137774677</v>
-      </c>
-    </row>
-    <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D151" s="20">
-        <v>1805.0</v>
-      </c>
-      <c r="E151" s="20">
-        <v>557.0</v>
-      </c>
-      <c r="F151" s="21">
-        <f t="shared" si="3"/>
-        <v>0.3085872576</v>
-      </c>
-    </row>
-    <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D152" s="20">
-        <v>35002.0</v>
-      </c>
-      <c r="E152" s="20">
-        <v>15915.0</v>
-      </c>
-      <c r="F152" s="21">
-        <f t="shared" si="3"/>
-        <v>0.4546883035</v>
-      </c>
-    </row>
-    <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D153" s="20">
-        <v>45181.0</v>
-      </c>
-      <c r="E153" s="20">
-        <v>8372.0</v>
-      </c>
-      <c r="F153" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1852991302</v>
-      </c>
-    </row>
-    <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D154" s="20">
-        <v>62298.0</v>
-      </c>
-      <c r="E154" s="20">
-        <v>12352.0</v>
-      </c>
-      <c r="F154" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.1982728177</v>
       </c>
     </row>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
     <row r="155" ht="12.75" customHeight="1"/>
     <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4563,65 +4476,73 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.86"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="78.57"/>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="68.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="24">
+        <v>44335.0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="26">
+        <v>2021.0</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="27">
+        <v>44351.0</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="30">
+        <v>44665.0</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2021.0</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="25">
-        <v>44335.0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="27">
-        <v>2021.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="28">
-        <v>44351.0</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
